--- a/examples/palabra/results.xlsx
+++ b/examples/palabra/results.xlsx
@@ -820,10 +820,10 @@
         <v>237</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
@@ -840,61 +840,61 @@
 11: The interface `eth2` of `as1r2` has the following IP addresses: ['1.2.0.1/24']`.
 12: The interface `eth2` of `as3r2` has the following IP addresses: ['3.1.0.1/24']`.
 13: Interface eth`3` not found on `as3r2`
-14: Interface eth`0` not found on `root`
-15: Interface eth`0` not found on `net`
-16: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
-17: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
-18: `2.1.0.2` not reachable from device `as1r1`.
-19: `3.1.0.2` not reachable from device `as1r1`.
-20: `3.2.0.1` not reachable from device `as1r1`.
-21: `3.2.0.2` not reachable from device `as1r1`.
-22: `1.0.0.2` not reachable from device `as1r2`.
-23: `2.1.0.2` not reachable from device `as1r2`.
-24: `3.1.0.2` not reachable from device `as1r2`.
-25: `3.2.0.1` not reachable from device `as1r2`.
-26: `3.2.0.2` not reachable from device `as1r2`.
-27: `1.0.0.2` not reachable from device `as2r1`.
-28: `2.1.0.2` not reachable from device `as2r1`.
-29: `3.1.0.2` not reachable from device `as2r1`.
-30: `3.2.0.1` not reachable from device `as2r1`.
-31: `3.2.0.2` not reachable from device `as2r1`.
-32: `1.0.0.2` not reachable from device `as2r2`.
-33: `2.1.0.2` not reachable from device `as2r2`.
-34: `3.1.0.2` not reachable from device `as2r2`.
-35: `3.2.0.1` not reachable from device `as2r2`.
-36: `3.2.0.2` not reachable from device `as2r2`.
-37: `1.0.0.2` not reachable from device `as3r1`.
-38: `2.1.0.2` not reachable from device `as3r1`.
-39: `3.1.0.2` not reachable from device `as3r1`.
-40: `3.2.0.1` not reachable from device `as3r1`.
-41: `3.2.0.2` not reachable from device `as3r1`.
-42: `1.0.0.2` not reachable from device `as3r2`.
-43: `2.1.0.2` not reachable from device `as3r2`.
-44: `3.1.0.2` not reachable from device `as3r2`.
-45: `3.2.0.1` not reachable from device `as3r2`.
-46: `3.2.0.2` not reachable from device `as3r2`.
-47: `1.0.0.1` not reachable from device `local`.
-48: `1.0.0.2` not reachable from device `local`.
-49: `1.1.0.1` not reachable from device `local`.
-50: `1.1.0.2` not reachable from device `local`.
-51: `2.0.0.1` not reachable from device `local`.
-52: `2.0.0.2` not reachable from device `local`.
-53: `2.1.0.1` not reachable from device `local`.
-54: `2.1.0.2` not reachable from device `local`.
-55: `3.0.0.1` not reachable from device `local`.
-56: `3.0.0.2` not reachable from device `local`.
-57: `3.1.0.1` not reachable from device `local`.
-58: `3.1.0.2` not reachable from device `local`.
-59: `3.2.0.1` not reachable from device `local`.
-60: `3.2.0.2` not reachable from device `local`.
-61: `10.20.0.1` not reachable from device `local`.
-62: `10.20.0.2` not reachable from device `local`.
-63: `10.20.1.1` not reachable from device `local`.
-64: `10.20.1.2` not reachable from device `local`.
-65: `20.30.0.1` not reachable from device `local`.
-66: `20.30.0.2` not reachable from device `local`.
-67: `20.30.1.1` not reachable from device `local`.
-68: `20.30.1.2` not reachable from device `local`.
+14: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
+15: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
+16: `2.1.0.2` not reachable from device `as1r1`.
+17: `3.1.0.2` not reachable from device `as1r1`.
+18: `3.2.0.1` not reachable from device `as1r1`.
+19: `3.2.0.2` not reachable from device `as1r1`.
+20: `1.0.0.2` not reachable from device `as1r2`.
+21: `2.1.0.2` not reachable from device `as1r2`.
+22: `3.1.0.2` not reachable from device `as1r2`.
+23: `3.2.0.1` not reachable from device `as1r2`.
+24: `3.2.0.2` not reachable from device `as1r2`.
+25: `1.0.0.2` not reachable from device `as2r1`.
+26: `2.1.0.2` not reachable from device `as2r1`.
+27: `3.1.0.2` not reachable from device `as2r1`.
+28: `3.2.0.1` not reachable from device `as2r1`.
+29: `3.2.0.2` not reachable from device `as2r1`.
+30: `1.0.0.2` not reachable from device `as2r2`.
+31: `2.1.0.2` not reachable from device `as2r2`.
+32: `3.1.0.2` not reachable from device `as2r2`.
+33: `3.2.0.1` not reachable from device `as2r2`.
+34: `3.2.0.2` not reachable from device `as2r2`.
+35: `1.0.0.2` not reachable from device `as3r1`.
+36: `2.1.0.2` not reachable from device `as3r1`.
+37: `3.1.0.2` not reachable from device `as3r1`.
+38: `3.2.0.1` not reachable from device `as3r1`.
+39: `3.2.0.2` not reachable from device `as3r1`.
+40: `1.0.0.2` not reachable from device `as3r2`.
+41: `2.1.0.2` not reachable from device `as3r2`.
+42: `3.1.0.2` not reachable from device `as3r2`.
+43: `3.2.0.1` not reachable from device `as3r2`.
+44: `3.2.0.2` not reachable from device `as3r2`.
+45: `1.0.0.1` not reachable from device `local`.
+46: `1.0.0.2` not reachable from device `local`.
+47: `1.1.0.1` not reachable from device `local`.
+48: `1.1.0.2` not reachable from device `local`.
+49: `2.0.0.1` not reachable from device `local`.
+50: `2.0.0.2` not reachable from device `local`.
+51: `2.1.0.1` not reachable from device `local`.
+52: `2.1.0.2` not reachable from device `local`.
+53: `3.0.0.1` not reachable from device `local`.
+54: `3.0.0.2` not reachable from device `local`.
+55: `3.1.0.1` not reachable from device `local`.
+56: `3.1.0.2` not reachable from device `local`.
+57: `3.2.0.1` not reachable from device `local`.
+58: `3.2.0.2` not reachable from device `local`.
+59: `10.20.0.1` not reachable from device `local`.
+60: `10.20.0.2` not reachable from device `local`.
+61: `10.20.1.1` not reachable from device `local`.
+62: `10.20.1.2` not reachable from device `local`.
+63: `20.30.0.1` not reachable from device `local`.
+64: `20.30.0.2` not reachable from device `local`.
+65: `20.30.1.1` not reachable from device `local`.
+66: `20.30.1.2` not reachable from device `local`.
+67: Device `root` is not running.
+68: Device `root` is not running.
 69: Device `root` is not running.
 70: Device `root` is not running.
 71: Device `root` is not running.
@@ -915,8 +915,8 @@
 86: Device `root` is not running.
 87: Device `root` is not running.
 88: Device `root` is not running.
-89: Device `root` is not running.
-90: Device `root` is not running.
+89: Device `net` is not running.
+90: Device `net` is not running.
 91: Device `net` is not running.
 92: Device `net` is not running.
 93: Device `net` is not running.
@@ -937,60 +937,58 @@
 108: Device `net` is not running.
 109: Device `net` is not running.
 110: Device `net` is not running.
-111: Device `net` is not running.
-112: Device `net` is not running.
-113: `1.1.0.1` not reachable from device `pc`.
-114: `1.1.0.2` not reachable from device `pc`.
-115: `2.0.0.1` not reachable from device `pc`.
-116: `2.0.0.2` not reachable from device `pc`.
-117: `2.1.0.1` not reachable from device `pc`.
-118: `2.1.0.2` not reachable from device `pc`.
-119: `3.0.0.1` not reachable from device `pc`.
-120: `3.0.0.2` not reachable from device `pc`.
-121: `3.1.0.1` not reachable from device `pc`.
-122: `3.1.0.2` not reachable from device `pc`.
-123: `3.2.0.1` not reachable from device `pc`.
-124: `3.2.0.2` not reachable from device `pc`.
-125: `10.20.0.1` not reachable from device `pc`.
-126: `10.20.0.2` not reachable from device `pc`.
-127: `10.20.1.1` not reachable from device `pc`.
-128: `10.20.1.2` not reachable from device `pc`.
-129: `20.30.0.1` not reachable from device `pc`.
-130: `20.30.0.2` not reachable from device `pc`.
-131: `20.30.1.1` not reachable from device `pc`.
-132: `20.30.1.2` not reachable from device `pc`.
-133: Device net not in the network scenario.
-134: Device net not in the network scenario.
-135: Device root not in the network scenario.
-136: Device root not in the network scenario.
-137: The peering between as1r1 and 1.0.0.2 is not up.
-138: The peering between as1r2 and 1.0.0.1 is not up.
-139: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
-140: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
-141: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
-142: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
-143: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
-144: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
-145: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
-146: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
-147: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
-148: Device `root` is not running.
-149: Device `root` is not running.
-150: named on local is running but answered with REFUSED when quering for .
-151: Device `net` is not running.
-152: `resolv.conf` file not found for device `as1r1`
-153: `resolv.conf` file not found for device `as1r2`
-154: `resolv.conf` file not found for device `as2r1`
-155: `resolv.conf` file not found for device `as2r2`
-156: `resolv.conf` file not found for device `as3r1`
-157: `resolv.conf` file not found for device `as3r2`
-158: The local name server for device `pc` has ip `3.2.0.2`
-159: `pc.net` not reachable from device `as1r1`.
-160: `pc.net` not reachable from device `as1r2`.
-161: `pc.net` not reachable from device `as2r1`.
-162: `pc.net` not reachable from device `as2r2`.
-163: `pc.net` not reachable from device `as3r1`.
-164: `pc.net` not reachable from device `as3r2`.
+111: `1.1.0.1` not reachable from device `pc`.
+112: `1.1.0.2` not reachable from device `pc`.
+113: `2.0.0.1` not reachable from device `pc`.
+114: `2.0.0.2` not reachable from device `pc`.
+115: `2.1.0.1` not reachable from device `pc`.
+116: `2.1.0.2` not reachable from device `pc`.
+117: `3.0.0.1` not reachable from device `pc`.
+118: `3.0.0.2` not reachable from device `pc`.
+119: `3.1.0.1` not reachable from device `pc`.
+120: `3.1.0.2` not reachable from device `pc`.
+121: `3.2.0.1` not reachable from device `pc`.
+122: `3.2.0.2` not reachable from device `pc`.
+123: `10.20.0.1` not reachable from device `pc`.
+124: `10.20.0.2` not reachable from device `pc`.
+125: `10.20.1.1` not reachable from device `pc`.
+126: `10.20.1.2` not reachable from device `pc`.
+127: `20.30.0.1` not reachable from device `pc`.
+128: `20.30.0.2` not reachable from device `pc`.
+129: `20.30.1.1` not reachable from device `pc`.
+130: `20.30.1.2` not reachable from device `pc`.
+131: Device net not in the network scenario.
+132: Device net not in the network scenario.
+133: Device root not in the network scenario.
+134: Device root not in the network scenario.
+135: The peering between as1r1 and 1.0.0.2 is not up.
+136: The peering between as1r2 and 1.0.0.1 is not up.
+137: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
+138: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
+139: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
+140: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
+141: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
+142: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
+143: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
+144: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
+145: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
+146: Device `root` is not running.
+147: Device `root` is not running.
+148: named on local is running but answered with REFUSED when quering for .
+149: Device `net` is not running.
+150: `resolv.conf` file not found for device `as1r1`
+151: `resolv.conf` file not found for device `as1r2`
+152: `resolv.conf` file not found for device `as2r1`
+153: `resolv.conf` file not found for device `as2r2`
+154: `resolv.conf` file not found for device `as3r1`
+155: `resolv.conf` file not found for device `as3r2`
+156: The local name server for device `pc` has ip `3.2.0.2`
+157: `pc.net` not reachable from device `as1r1`.
+158: `pc.net` not reachable from device `as1r2`.
+159: `pc.net` not reachable from device `as2r1`.
+160: `pc.net` not reachable from device `as2r2`.
+161: `pc.net` not reachable from device `as3r1`.
+162: `pc.net` not reachable from device `as3r2`.
 </t>
         </is>
       </c>

--- a/examples/palabra/results.xlsx
+++ b/examples/palabra/results.xlsx
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
         <v>399</v>
@@ -848,55 +848,55 @@
 19: `3.2.0.2` not reachable from device `as1r1`.
 20: `1.0.0.2` not reachable from device `as1r2`.
 21: `2.1.0.2` not reachable from device `as1r2`.
-22: `3.1.0.2` not reachable from device `as1r2`.
-23: `3.2.0.1` not reachable from device `as1r2`.
-24: `3.2.0.2` not reachable from device `as1r2`.
-25: `1.0.0.2` not reachable from device `as2r1`.
-26: `2.1.0.2` not reachable from device `as2r1`.
-27: `3.1.0.2` not reachable from device `as2r1`.
-28: `3.2.0.1` not reachable from device `as2r1`.
-29: `3.2.0.2` not reachable from device `as2r1`.
-30: `1.0.0.2` not reachable from device `as2r2`.
-31: `2.1.0.2` not reachable from device `as2r2`.
-32: `3.1.0.2` not reachable from device `as2r2`.
-33: `3.2.0.1` not reachable from device `as2r2`.
-34: `3.2.0.2` not reachable from device `as2r2`.
-35: `1.0.0.2` not reachable from device `as3r1`.
-36: `2.1.0.2` not reachable from device `as3r1`.
-37: `3.1.0.2` not reachable from device `as3r1`.
-38: `3.2.0.1` not reachable from device `as3r1`.
-39: `3.2.0.2` not reachable from device `as3r1`.
-40: `1.0.0.2` not reachable from device `as3r2`.
-41: `2.1.0.2` not reachable from device `as3r2`.
-42: `3.1.0.2` not reachable from device `as3r2`.
-43: `3.2.0.1` not reachable from device `as3r2`.
-44: `3.2.0.2` not reachable from device `as3r2`.
-45: `1.0.0.1` not reachable from device `local`.
-46: `1.0.0.2` not reachable from device `local`.
-47: `1.1.0.1` not reachable from device `local`.
-48: `1.1.0.2` not reachable from device `local`.
-49: `2.0.0.1` not reachable from device `local`.
-50: `2.0.0.2` not reachable from device `local`.
-51: `2.1.0.1` not reachable from device `local`.
-52: `2.1.0.2` not reachable from device `local`.
-53: `3.0.0.1` not reachable from device `local`.
-54: `3.0.0.2` not reachable from device `local`.
-55: `3.1.0.1` not reachable from device `local`.
-56: `3.1.0.2` not reachable from device `local`.
-57: `3.2.0.1` not reachable from device `local`.
-58: `3.2.0.2` not reachable from device `local`.
-59: `10.20.0.1` not reachable from device `local`.
-60: `10.20.0.2` not reachable from device `local`.
-61: `10.20.1.1` not reachable from device `local`.
-62: `10.20.1.2` not reachable from device `local`.
-63: `20.30.0.1` not reachable from device `local`.
-64: `20.30.0.2` not reachable from device `local`.
-65: `20.30.1.1` not reachable from device `local`.
-66: `20.30.1.2` not reachable from device `local`.
-67: Device `root` is not running.
-68: Device `root` is not running.
-69: Device `root` is not running.
-70: Device `root` is not running.
+22: `3.1.0.1` not reachable from device `as1r2`.
+23: `3.1.0.2` not reachable from device `as1r2`.
+24: `3.2.0.1` not reachable from device `as1r2`.
+25: `3.2.0.2` not reachable from device `as1r2`.
+26: `20.30.0.1` not reachable from device `as1r2`.
+27: `1.0.0.2` not reachable from device `as2r1`.
+28: `2.1.0.2` not reachable from device `as2r1`.
+29: `3.1.0.2` not reachable from device `as2r1`.
+30: `3.2.0.1` not reachable from device `as2r1`.
+31: `3.2.0.2` not reachable from device `as2r1`.
+32: `20.30.1.1` not reachable from device `as2r1`.
+33: `1.0.0.2` not reachable from device `as2r2`.
+34: `2.1.0.2` not reachable from device `as2r2`.
+35: `3.1.0.1` not reachable from device `as2r2`.
+36: `3.1.0.2` not reachable from device `as2r2`.
+37: `3.2.0.1` not reachable from device `as2r2`.
+38: `3.2.0.2` not reachable from device `as2r2`.
+39: `1.0.0.2` not reachable from device `as3r1`.
+40: `2.1.0.2` not reachable from device `as3r1`.
+41: `3.1.0.2` not reachable from device `as3r1`.
+42: `3.2.0.1` not reachable from device `as3r1`.
+43: `3.2.0.2` not reachable from device `as3r1`.
+44: `1.0.0.2` not reachable from device `as3r2`.
+45: `2.1.0.2` not reachable from device `as3r2`.
+46: `3.1.0.2` not reachable from device `as3r2`.
+47: `3.2.0.1` not reachable from device `as3r2`.
+48: `3.2.0.2` not reachable from device `as3r2`.
+49: `1.0.0.1` not reachable from device `local`.
+50: `1.0.0.2` not reachable from device `local`.
+51: `1.1.0.1` not reachable from device `local`.
+52: `1.1.0.2` not reachable from device `local`.
+53: `2.0.0.1` not reachable from device `local`.
+54: `2.0.0.2` not reachable from device `local`.
+55: `2.1.0.1` not reachable from device `local`.
+56: `2.1.0.2` not reachable from device `local`.
+57: `3.0.0.1` not reachable from device `local`.
+58: `3.0.0.2` not reachable from device `local`.
+59: `3.1.0.1` not reachable from device `local`.
+60: `3.1.0.2` not reachable from device `local`.
+61: `3.2.0.1` not reachable from device `local`.
+62: `3.2.0.2` not reachable from device `local`.
+63: `10.20.0.1` not reachable from device `local`.
+64: `10.20.0.2` not reachable from device `local`.
+65: `10.20.1.1` not reachable from device `local`.
+66: `10.20.1.2` not reachable from device `local`.
+67: `20.30.0.1` not reachable from device `local`.
+68: `20.30.0.2` not reachable from device `local`.
+69: `20.30.1.1` not reachable from device `local`.
+70: `20.30.1.2` not reachable from device `local`.
 71: Device `root` is not running.
 72: Device `root` is not running.
 73: Device `root` is not running.
@@ -915,10 +915,10 @@
 86: Device `root` is not running.
 87: Device `root` is not running.
 88: Device `root` is not running.
-89: Device `net` is not running.
-90: Device `net` is not running.
-91: Device `net` is not running.
-92: Device `net` is not running.
+89: Device `root` is not running.
+90: Device `root` is not running.
+91: Device `root` is not running.
+92: Device `root` is not running.
 93: Device `net` is not running.
 94: Device `net` is not running.
 95: Device `net` is not running.
@@ -937,58 +937,62 @@
 108: Device `net` is not running.
 109: Device `net` is not running.
 110: Device `net` is not running.
-111: `1.1.0.1` not reachable from device `pc`.
-112: `1.1.0.2` not reachable from device `pc`.
-113: `2.0.0.1` not reachable from device `pc`.
-114: `2.0.0.2` not reachable from device `pc`.
-115: `2.1.0.1` not reachable from device `pc`.
-116: `2.1.0.2` not reachable from device `pc`.
-117: `3.0.0.1` not reachable from device `pc`.
-118: `3.0.0.2` not reachable from device `pc`.
-119: `3.1.0.1` not reachable from device `pc`.
-120: `3.1.0.2` not reachable from device `pc`.
-121: `3.2.0.1` not reachable from device `pc`.
-122: `3.2.0.2` not reachable from device `pc`.
-123: `10.20.0.1` not reachable from device `pc`.
-124: `10.20.0.2` not reachable from device `pc`.
-125: `10.20.1.1` not reachable from device `pc`.
-126: `10.20.1.2` not reachable from device `pc`.
-127: `20.30.0.1` not reachable from device `pc`.
-128: `20.30.0.2` not reachable from device `pc`.
-129: `20.30.1.1` not reachable from device `pc`.
-130: `20.30.1.2` not reachable from device `pc`.
-131: Device net not in the network scenario.
-132: Device net not in the network scenario.
-133: Device root not in the network scenario.
-134: Device root not in the network scenario.
-135: The peering between as1r1 and 1.0.0.2 is not up.
-136: The peering between as1r2 and 1.0.0.1 is not up.
-137: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
-138: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
-139: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
-140: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
-141: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
-142: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
-143: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
-144: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
-145: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
-146: Device `root` is not running.
-147: Device `root` is not running.
-148: named on local is running but answered with REFUSED when quering for .
-149: Device `net` is not running.
-150: `resolv.conf` file not found for device `as1r1`
-151: `resolv.conf` file not found for device `as1r2`
-152: `resolv.conf` file not found for device `as2r1`
-153: `resolv.conf` file not found for device `as2r2`
-154: `resolv.conf` file not found for device `as3r1`
-155: `resolv.conf` file not found for device `as3r2`
-156: The local name server for device `pc` has ip `3.2.0.2`
-157: `pc.net` not reachable from device `as1r1`.
-158: `pc.net` not reachable from device `as1r2`.
-159: `pc.net` not reachable from device `as2r1`.
-160: `pc.net` not reachable from device `as2r2`.
-161: `pc.net` not reachable from device `as3r1`.
-162: `pc.net` not reachable from device `as3r2`.
+111: Device `net` is not running.
+112: Device `net` is not running.
+113: Device `net` is not running.
+114: Device `net` is not running.
+115: `1.1.0.1` not reachable from device `pc`.
+116: `1.1.0.2` not reachable from device `pc`.
+117: `2.0.0.1` not reachable from device `pc`.
+118: `2.0.0.2` not reachable from device `pc`.
+119: `2.1.0.1` not reachable from device `pc`.
+120: `2.1.0.2` not reachable from device `pc`.
+121: `3.0.0.1` not reachable from device `pc`.
+122: `3.0.0.2` not reachable from device `pc`.
+123: `3.1.0.1` not reachable from device `pc`.
+124: `3.1.0.2` not reachable from device `pc`.
+125: `3.2.0.1` not reachable from device `pc`.
+126: `3.2.0.2` not reachable from device `pc`.
+127: `10.20.0.1` not reachable from device `pc`.
+128: `10.20.0.2` not reachable from device `pc`.
+129: `10.20.1.1` not reachable from device `pc`.
+130: `10.20.1.2` not reachable from device `pc`.
+131: `20.30.0.1` not reachable from device `pc`.
+132: `20.30.0.2` not reachable from device `pc`.
+133: `20.30.1.1` not reachable from device `pc`.
+134: `20.30.1.2` not reachable from device `pc`.
+135: Device net not in the network scenario.
+136: Device net not in the network scenario.
+137: Device root not in the network scenario.
+138: Device root not in the network scenario.
+139: The peering between as1r1 and 1.0.0.2 is not up.
+140: The peering between as1r2 and 1.0.0.1 is not up.
+141: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
+142: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
+143: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
+144: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
+145: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
+146: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
+147: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
+148: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
+149: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
+150: Device `root` is not running.
+151: Device `root` is not running.
+152: named on local is running but answered with REFUSED when quering for .
+153: Device `net` is not running.
+154: `resolv.conf` file not found for device `as1r1`
+155: `resolv.conf` file not found for device `as1r2`
+156: `resolv.conf` file not found for device `as2r1`
+157: `resolv.conf` file not found for device `as2r2`
+158: `resolv.conf` file not found for device `as3r1`
+159: `resolv.conf` file not found for device `as3r2`
+160: The local name server for device `pc` has ip `3.2.0.2`
+161: `pc.net` not reachable from device `as1r1`.
+162: `pc.net` not reachable from device `as1r2`.
+163: `pc.net` not reachable from device `as2r1`.
+164: `pc.net` not reachable from device `as2r2`.
+165: `pc.net` not reachable from device `as3r1`.
+166: `pc.net` not reachable from device `as3r2`.
 </t>
         </is>
       </c>

--- a/examples/palabra/results.xlsx
+++ b/examples/palabra/results.xlsx
@@ -487,201 +487,201 @@
 17: The interface `eth0` of `root` has the following IP addresses: ['3.1.0.2/24']`.
 18: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
 19: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
-20: `1.1.0.2` not reachable from device `as1r1`.
-21: `2.0.0.1` not reachable from device `as1r1`.
-22: `2.0.0.2` not reachable from device `as1r1`.
-23: `2.1.0.1` not reachable from device `as1r1`.
-24: `2.1.0.2` not reachable from device `as1r1`.
-25: `3.0.0.1` not reachable from device `as1r1`.
-26: `3.0.0.2` not reachable from device `as1r1`.
-27: `3.1.0.1` not reachable from device `as1r1`.
-28: `3.1.0.2` not reachable from device `as1r1`.
-29: `3.2.0.1` not reachable from device `as1r1`.
-30: `3.2.0.2` not reachable from device `as1r1`.
-31: `10.20.0.2` not reachable from device `as1r1`.
-32: `10.20.1.1` not reachable from device `as1r1`.
-33: `10.20.1.2` not reachable from device `as1r1`.
-34: `20.30.0.1` not reachable from device `as1r1`.
-35: `20.30.0.2` not reachable from device `as1r1`.
-36: `20.30.1.1` not reachable from device `as1r1`.
-37: `20.30.1.2` not reachable from device `as1r1`.
-38: `1.0.0.1` not reachable from device `as1r2`.
-39: `1.0.0.2` not reachable from device `as1r2`.
-40: `1.1.0.1` not reachable from device `as1r2`.
-41: `1.1.0.2` not reachable from device `as1r2`.
-42: `2.0.0.1` not reachable from device `as1r2`.
-43: `2.0.0.2` not reachable from device `as1r2`.
-44: `2.1.0.1` not reachable from device `as1r2`.
-45: `2.1.0.2` not reachable from device `as1r2`.
-46: `3.0.0.1` not reachable from device `as1r2`.
-47: `3.0.0.2` not reachable from device `as1r2`.
-48: `3.1.0.1` not reachable from device `as1r2`.
-49: `3.1.0.2` not reachable from device `as1r2`.
-50: `3.2.0.1` not reachable from device `as1r2`.
-51: `3.2.0.2` not reachable from device `as1r2`.
-52: `10.20.0.1` not reachable from device `as1r2`.
-53: `10.20.0.2` not reachable from device `as1r2`.
-54: `10.20.1.1` not reachable from device `as1r2`.
-55: `10.20.1.2` not reachable from device `as1r2`.
-56: `20.30.0.1` not reachable from device `as1r2`.
-57: `20.30.0.2` not reachable from device `as1r2`.
-58: `20.30.1.1` not reachable from device `as1r2`.
-59: `20.30.1.2` not reachable from device `as1r2`.
-60: `1.0.0.1` not reachable from device `as2r1`.
-61: `1.0.0.2` not reachable from device `as2r1`.
-62: `1.1.0.1` not reachable from device `as2r1`.
-63: `1.1.0.2` not reachable from device `as2r1`.
-64: `2.0.0.1` not reachable from device `as2r1`.
-65: `2.0.0.2` not reachable from device `as2r1`.
-66: `2.1.0.1` not reachable from device `as2r1`.
-67: `2.1.0.2` not reachable from device `as2r1`.
-68: `3.0.0.1` not reachable from device `as2r1`.
-69: `3.0.0.2` not reachable from device `as2r1`.
-70: `3.1.0.1` not reachable from device `as2r1`.
-71: `3.1.0.2` not reachable from device `as2r1`.
-72: `3.2.0.1` not reachable from device `as2r1`.
-73: `3.2.0.2` not reachable from device `as2r1`.
-74: `10.20.0.1` not reachable from device `as2r1`.
-75: `10.20.0.2` not reachable from device `as2r1`.
-76: `10.20.1.1` not reachable from device `as2r1`.
-77: `10.20.1.2` not reachable from device `as2r1`.
-78: `20.30.0.1` not reachable from device `as2r1`.
-79: `20.30.0.2` not reachable from device `as2r1`.
-80: `20.30.1.1` not reachable from device `as2r1`.
-81: `20.30.1.2` not reachable from device `as2r1`.
-82: `1.0.0.1` not reachable from device `as2r2`.
-83: `1.0.0.2` not reachable from device `as2r2`.
-84: `1.1.0.1` not reachable from device `as2r2`.
-85: `1.1.0.2` not reachable from device `as2r2`.
-86: `2.0.0.2` not reachable from device `as2r2`.
-87: `3.0.0.1` not reachable from device `as2r2`.
-88: `3.0.0.2` not reachable from device `as2r2`.
-89: `3.1.0.1` not reachable from device `as2r2`.
-90: `3.1.0.2` not reachable from device `as2r2`.
-91: `3.2.0.1` not reachable from device `as2r2`.
-92: `3.2.0.2` not reachable from device `as2r2`.
-93: `10.20.0.1` not reachable from device `as2r2`.
-94: `10.20.0.2` not reachable from device `as2r2`.
-95: `10.20.1.1` not reachable from device `as2r2`.
-96: `20.30.0.1` not reachable from device `as2r2`.
-97: `20.30.0.2` not reachable from device `as2r2`.
-98: `1.0.0.1` not reachable from device `as3r1`.
-99: `1.0.0.2` not reachable from device `as3r1`.
-100: `1.1.0.1` not reachable from device `as3r1`.
-101: `1.1.0.2` not reachable from device `as3r1`.
-102: `2.0.0.1` not reachable from device `as3r1`.
-103: `2.0.0.2` not reachable from device `as3r1`.
-104: `2.1.0.1` not reachable from device `as3r1`.
-105: `2.1.0.2` not reachable from device `as3r1`.
-106: `3.1.0.1` not reachable from device `as3r1`.
-107: `3.1.0.2` not reachable from device `as3r1`.
-108: `3.2.0.1` not reachable from device `as3r1`.
-109: `3.2.0.2` not reachable from device `as3r1`.
-110: `10.20.0.1` not reachable from device `as3r1`.
-111: `10.20.0.2` not reachable from device `as3r1`.
-112: `10.20.1.1` not reachable from device `as3r1`.
-113: `10.20.1.2` not reachable from device `as3r1`.
-114: `20.30.0.1` not reachable from device `as3r1`.
-115: `20.30.1.1` not reachable from device `as3r1`.
-116: `20.30.1.2` not reachable from device `as3r1`.
-117: `1.0.0.1` not reachable from device `as3r2`.
-118: `1.0.0.2` not reachable from device `as3r2`.
-119: `1.1.0.1` not reachable from device `as3r2`.
-120: `1.1.0.2` not reachable from device `as3r2`.
-121: `2.0.0.1` not reachable from device `as3r2`.
-122: `2.0.0.2` not reachable from device `as3r2`.
-123: `2.1.0.1` not reachable from device `as3r2`.
-124: `2.1.0.2` not reachable from device `as3r2`.
-125: `3.2.0.1` not reachable from device `as3r2`.
-126: `3.2.0.2` not reachable from device `as3r2`.
-127: `10.20.0.1` not reachable from device `as3r2`.
-128: `10.20.0.2` not reachable from device `as3r2`.
-129: `10.20.1.1` not reachable from device `as3r2`.
-130: `10.20.1.2` not reachable from device `as3r2`.
-131: `20.30.0.1` not reachable from device `as3r2`.
-132: `20.30.0.2` not reachable from device `as3r2`.
-133: `1.0.0.1` not reachable from device `local`.
-134: `1.0.0.2` not reachable from device `local`.
-135: `1.1.0.1` not reachable from device `local`.
-136: `1.1.0.2` not reachable from device `local`.
-137: `2.0.0.1` not reachable from device `local`.
-138: `2.0.0.2` not reachable from device `local`.
-139: `2.1.0.1` not reachable from device `local`.
-140: `2.1.0.2` not reachable from device `local`.
-141: `3.0.0.1` not reachable from device `local`.
-142: `3.0.0.2` not reachable from device `local`.
-143: `3.1.0.1` not reachable from device `local`.
-144: `3.1.0.2` not reachable from device `local`.
-145: `3.2.0.1` not reachable from device `local`.
-146: `3.2.0.2` not reachable from device `local`.
-147: `10.20.0.1` not reachable from device `local`.
-148: `10.20.0.2` not reachable from device `local`.
-149: `10.20.1.1` not reachable from device `local`.
-150: `10.20.1.2` not reachable from device `local`.
-151: `20.30.0.1` not reachable from device `local`.
-152: `20.30.0.2` not reachable from device `local`.
-153: `20.30.1.1` not reachable from device `local`.
-154: `20.30.1.2` not reachable from device `local`.
-155: `1.0.0.1` not reachable from device `root`.
-156: `1.0.0.2` not reachable from device `root`.
-157: `1.1.0.1` not reachable from device `root`.
-158: `1.1.0.2` not reachable from device `root`.
-159: `2.0.0.1` not reachable from device `root`.
-160: `2.0.0.2` not reachable from device `root`.
-161: `2.1.0.1` not reachable from device `root`.
-162: `2.1.0.2` not reachable from device `root`.
-163: `3.0.0.1` not reachable from device `root`.
-164: `3.0.0.2` not reachable from device `root`.
-165: `3.2.0.1` not reachable from device `root`.
-166: `3.2.0.2` not reachable from device `root`.
-167: `10.20.0.1` not reachable from device `root`.
-168: `10.20.0.2` not reachable from device `root`.
-169: `10.20.1.1` not reachable from device `root`.
-170: `10.20.1.2` not reachable from device `root`.
-171: `20.30.0.1` not reachable from device `root`.
-172: `20.30.0.2` not reachable from device `root`.
-173: `20.30.1.1` not reachable from device `root`.
-174: `20.30.1.2` not reachable from device `root`.
-175: `1.0.0.1` not reachable from device `net`.
-176: `1.0.0.2` not reachable from device `net`.
-177: `1.1.0.1` not reachable from device `net`.
-178: `1.1.0.2` not reachable from device `net`.
-179: `2.0.0.1` not reachable from device `net`.
-180: `2.0.0.2` not reachable from device `net`.
-181: `3.0.0.1` not reachable from device `net`.
-182: `3.0.0.2` not reachable from device `net`.
-183: `3.1.0.1` not reachable from device `net`.
-184: `3.1.0.2` not reachable from device `net`.
-185: `3.2.0.1` not reachable from device `net`.
-186: `3.2.0.2` not reachable from device `net`.
-187: `10.20.0.1` not reachable from device `net`.
-188: `10.20.0.2` not reachable from device `net`.
-189: `10.20.1.1` not reachable from device `net`.
-190: `10.20.1.2` not reachable from device `net`.
-191: `20.30.0.1` not reachable from device `net`.
-192: `20.30.0.2` not reachable from device `net`.
-193: `20.30.1.1` not reachable from device `net`.
-194: `20.30.1.2` not reachable from device `net`.
-195: `1.1.0.1` not reachable from device `pc`.
-196: `1.1.0.2` not reachable from device `pc`.
-197: `2.0.0.1` not reachable from device `pc`.
-198: `2.0.0.2` not reachable from device `pc`.
-199: `2.1.0.1` not reachable from device `pc`.
-200: `2.1.0.2` not reachable from device `pc`.
-201: `3.0.0.1` not reachable from device `pc`.
-202: `3.0.0.2` not reachable from device `pc`.
-203: `3.1.0.1` not reachable from device `pc`.
-204: `3.1.0.2` not reachable from device `pc`.
-205: `3.2.0.1` not reachable from device `pc`.
-206: `3.2.0.2` not reachable from device `pc`.
-207: `10.20.0.1` not reachable from device `pc`.
-208: `10.20.0.2` not reachable from device `pc`.
-209: `10.20.1.1` not reachable from device `pc`.
-210: `10.20.1.2` not reachable from device `pc`.
-211: `20.30.0.1` not reachable from device `pc`.
-212: `20.30.0.2` not reachable from device `pc`.
-213: `20.30.1.1` not reachable from device `pc`.
-214: `20.30.1.2` not reachable from device `pc`.
+20: No answer from `1.1.0.2` to `as1r1`.
+21: ping: connect: Network is unreachable
+22: ping: connect: Network is unreachable
+23: ping: connect: Network is unreachable
+24: ping: connect: Network is unreachable
+25: ping: connect: Network is unreachable
+26: ping: connect: Network is unreachable
+27: ping: connect: Network is unreachable
+28: ping: connect: Network is unreachable
+29: ping: connect: Network is unreachable
+30: ping: connect: Network is unreachable
+31: No answer from `10.20.0.2` to `as1r1`.
+32: ping: connect: Network is unreachable
+33: ping: connect: Network is unreachable
+34: ping: connect: Network is unreachable
+35: ping: connect: Network is unreachable
+36: ping: connect: Network is unreachable
+37: ping: connect: Network is unreachable
+38: ping: connect: Network is unreachable
+39: ping: connect: Network is unreachable
+40: ping: connect: Network is unreachable
+41: ping: connect: Network is unreachable
+42: ping: connect: Network is unreachable
+43: ping: connect: Network is unreachable
+44: ping: connect: Network is unreachable
+45: ping: connect: Network is unreachable
+46: ping: connect: Network is unreachable
+47: ping: connect: Network is unreachable
+48: ping: connect: Network is unreachable
+49: ping: connect: Network is unreachable
+50: ping: connect: Network is unreachable
+51: ping: connect: Network is unreachable
+52: ping: connect: Network is unreachable
+53: ping: connect: Network is unreachable
+54: ping: connect: Network is unreachable
+55: ping: connect: Network is unreachable
+56: ping: connect: Network is unreachable
+57: ping: connect: Network is unreachable
+58: ping: connect: Network is unreachable
+59: ping: connect: Network is unreachable
+60: ping: connect: Network is unreachable
+61: ping: connect: Network is unreachable
+62: ping: connect: Network is unreachable
+63: ping: connect: Network is unreachable
+64: ping: connect: Network is unreachable
+65: ping: connect: Network is unreachable
+66: ping: connect: Network is unreachable
+67: ping: connect: Network is unreachable
+68: ping: connect: Network is unreachable
+69: ping: connect: Network is unreachable
+70: ping: connect: Network is unreachable
+71: ping: connect: Network is unreachable
+72: ping: connect: Network is unreachable
+73: ping: connect: Network is unreachable
+74: ping: connect: Network is unreachable
+75: ping: connect: Network is unreachable
+76: ping: connect: Network is unreachable
+77: ping: connect: Network is unreachable
+78: ping: connect: Network is unreachable
+79: ping: connect: Network is unreachable
+80: ping: connect: Network is unreachable
+81: ping: connect: Network is unreachable
+82: ping: connect: Network is unreachable
+83: ping: connect: Network is unreachable
+84: ping: connect: Network is unreachable
+85: ping: connect: Network is unreachable
+86: No answer from `2.0.0.2` to `as2r2`.
+87: ping: connect: Network is unreachable
+88: ping: connect: Network is unreachable
+89: ping: connect: Network is unreachable
+90: ping: connect: Network is unreachable
+91: ping: connect: Network is unreachable
+92: ping: connect: Network is unreachable
+93: ping: connect: Network is unreachable
+94: ping: connect: Network is unreachable
+95: No answer from `10.20.1.1` to `as2r2`.
+96: ping: connect: Network is unreachable
+97: ping: connect: Network is unreachable
+98: ping: connect: Network is unreachable
+99: ping: connect: Network is unreachable
+100: ping: connect: Network is unreachable
+101: ping: connect: Network is unreachable
+102: ping: connect: Network is unreachable
+103: ping: connect: Network is unreachable
+104: ping: connect: Network is unreachable
+105: ping: connect: Network is unreachable
+106: ping: connect: Network is unreachable
+107: ping: connect: Network is unreachable
+108: ping: connect: Network is unreachable
+109: ping: connect: Network is unreachable
+110: ping: connect: Network is unreachable
+111: ping: connect: Network is unreachable
+112: ping: connect: Network is unreachable
+113: ping: connect: Network is unreachable
+114: No answer from `20.30.0.1` to `as3r1`.
+115: ping: connect: Network is unreachable
+116: ping: connect: Network is unreachable
+117: ping: connect: Network is unreachable
+118: ping: connect: Network is unreachable
+119: ping: connect: Network is unreachable
+120: ping: connect: Network is unreachable
+121: ping: connect: Network is unreachable
+122: ping: connect: Network is unreachable
+123: ping: connect: Network is unreachable
+124: ping: connect: Network is unreachable
+125: ping: connect: Network is unreachable
+126: ping: connect: Network is unreachable
+127: ping: connect: Network is unreachable
+128: ping: connect: Network is unreachable
+129: ping: connect: Network is unreachable
+130: ping: connect: Network is unreachable
+131: ping: connect: Network is unreachable
+132: ping: connect: Network is unreachable
+133: ping: connect: Network is unreachable
+134: ping: connect: Network is unreachable
+135: ping: connect: Network is unreachable
+136: ping: connect: Network is unreachable
+137: ping: connect: Network is unreachable
+138: ping: connect: Network is unreachable
+139: ping: connect: Network is unreachable
+140: ping: connect: Network is unreachable
+141: ping: connect: Network is unreachable
+142: ping: connect: Network is unreachable
+143: ping: connect: Network is unreachable
+144: ping: connect: Network is unreachable
+145: ping: connect: Network is unreachable
+146: ping: connect: Network is unreachable
+147: ping: connect: Network is unreachable
+148: ping: connect: Network is unreachable
+149: ping: connect: Network is unreachable
+150: ping: connect: Network is unreachable
+151: ping: connect: Network is unreachable
+152: ping: connect: Network is unreachable
+153: ping: connect: Network is unreachable
+154: ping: connect: Network is unreachable
+155: ping: connect: Network is unreachable
+156: ping: connect: Network is unreachable
+157: ping: connect: Network is unreachable
+158: ping: connect: Network is unreachable
+159: ping: connect: Network is unreachable
+160: ping: connect: Network is unreachable
+161: ping: connect: Network is unreachable
+162: ping: connect: Network is unreachable
+163: ping: connect: Network is unreachable
+164: ping: connect: Network is unreachable
+165: ping: connect: Network is unreachable
+166: ping: connect: Network is unreachable
+167: ping: connect: Network is unreachable
+168: ping: connect: Network is unreachable
+169: ping: connect: Network is unreachable
+170: ping: connect: Network is unreachable
+171: ping: connect: Network is unreachable
+172: ping: connect: Network is unreachable
+173: ping: connect: Network is unreachable
+174: ping: connect: Network is unreachable
+175: ping: connect: Network is unreachable
+176: ping: connect: Network is unreachable
+177: ping: connect: Network is unreachable
+178: ping: connect: Network is unreachable
+179: ping: connect: Network is unreachable
+180: ping: connect: Network is unreachable
+181: ping: connect: Network is unreachable
+182: ping: connect: Network is unreachable
+183: ping: connect: Network is unreachable
+184: ping: connect: Network is unreachable
+185: ping: connect: Network is unreachable
+186: ping: connect: Network is unreachable
+187: ping: connect: Network is unreachable
+188: ping: connect: Network is unreachable
+189: ping: connect: Network is unreachable
+190: ping: connect: Network is unreachable
+191: ping: connect: Network is unreachable
+192: ping: connect: Network is unreachable
+193: ping: connect: Network is unreachable
+194: ping: connect: Network is unreachable
+195: ping: connect: Network is unreachable
+196: ping: connect: Network is unreachable
+197: ping: connect: Network is unreachable
+198: ping: connect: Network is unreachable
+199: ping: connect: Network is unreachable
+200: ping: connect: Network is unreachable
+201: ping: connect: Network is unreachable
+202: ping: connect: Network is unreachable
+203: ping: connect: Network is unreachable
+204: ping: connect: Network is unreachable
+205: ping: connect: Network is unreachable
+206: ping: connect: Network is unreachable
+207: ping: connect: Network is unreachable
+208: ping: connect: Network is unreachable
+209: ping: connect: Network is unreachable
+210: ping: connect: Network is unreachable
+211: ping: connect: Network is unreachable
+212: ping: connect: Network is unreachable
+213: ping: connect: Network is unreachable
+214: ping: connect: Network is unreachable
 215: Daemon bgpd is not running on device `as1r1`
 216: Daemon ripd is not running on device `as1r1`
 217: Daemon bgpd is not running on device `as1r2`
@@ -779,12 +779,12 @@
 309: `resolv.conf` file not found for device `as3r1`
 310: `resolv.conf` file not found for device `as3r2`
 311: `resolv.conf` file not found for device `pc`
-312: `pc.net` not reachable from device `as1r1`.
-313: `pc.net` not reachable from device `as1r2`.
-314: `pc.net` not reachable from device `as2r1`.
-315: `pc.net` not reachable from device `as2r2`.
-316: `pc.net` not reachable from device `as3r1`.
-317: `pc.net` not reachable from device `as3r2`.
+312: ping: pc.net: Temporary failure in name resolution
+313: ping: pc.net: Temporary failure in name resolution
+314: ping: pc.net: Temporary failure in name resolution
+315: ping: pc.net: Temporary failure in name resolution
+316: ping: pc.net: Temporary failure in name resolution
+317: ping: pc.net: Temporary failure in name resolution
 </t>
         </is>
       </c>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>399</v>
@@ -842,61 +842,61 @@
 13: Interface eth`3` not found on `as3r2`
 14: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
 15: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
-16: `2.1.0.2` not reachable from device `as1r1`.
-17: `3.1.0.2` not reachable from device `as1r1`.
-18: `3.2.0.1` not reachable from device `as1r1`.
-19: `3.2.0.2` not reachable from device `as1r1`.
-20: `1.0.0.2` not reachable from device `as1r2`.
-21: `2.1.0.2` not reachable from device `as1r2`.
-22: `3.1.0.1` not reachable from device `as1r2`.
-23: `3.1.0.2` not reachable from device `as1r2`.
-24: `3.2.0.1` not reachable from device `as1r2`.
-25: `3.2.0.2` not reachable from device `as1r2`.
-26: `20.30.0.1` not reachable from device `as1r2`.
-27: `1.0.0.2` not reachable from device `as2r1`.
-28: `2.1.0.2` not reachable from device `as2r1`.
-29: `3.1.0.2` not reachable from device `as2r1`.
-30: `3.2.0.1` not reachable from device `as2r1`.
-31: `3.2.0.2` not reachable from device `as2r1`.
-32: `20.30.1.1` not reachable from device `as2r1`.
-33: `1.0.0.2` not reachable from device `as2r2`.
-34: `2.1.0.2` not reachable from device `as2r2`.
-35: `3.1.0.1` not reachable from device `as2r2`.
-36: `3.1.0.2` not reachable from device `as2r2`.
-37: `3.2.0.1` not reachable from device `as2r2`.
-38: `3.2.0.2` not reachable from device `as2r2`.
-39: `1.0.0.2` not reachable from device `as3r1`.
-40: `2.1.0.2` not reachable from device `as3r1`.
-41: `3.1.0.2` not reachable from device `as3r1`.
-42: `3.2.0.1` not reachable from device `as3r1`.
-43: `3.2.0.2` not reachable from device `as3r1`.
-44: `1.0.0.2` not reachable from device `as3r2`.
-45: `2.1.0.2` not reachable from device `as3r2`.
-46: `3.1.0.2` not reachable from device `as3r2`.
-47: `3.2.0.1` not reachable from device `as3r2`.
-48: `3.2.0.2` not reachable from device `as3r2`.
-49: `1.0.0.1` not reachable from device `local`.
-50: `1.0.0.2` not reachable from device `local`.
-51: `1.1.0.1` not reachable from device `local`.
-52: `1.1.0.2` not reachable from device `local`.
-53: `2.0.0.1` not reachable from device `local`.
-54: `2.0.0.2` not reachable from device `local`.
-55: `2.1.0.1` not reachable from device `local`.
-56: `2.1.0.2` not reachable from device `local`.
-57: `3.0.0.1` not reachable from device `local`.
-58: `3.0.0.2` not reachable from device `local`.
-59: `3.1.0.1` not reachable from device `local`.
-60: `3.1.0.2` not reachable from device `local`.
-61: `3.2.0.1` not reachable from device `local`.
-62: `3.2.0.2` not reachable from device `local`.
-63: `10.20.0.1` not reachable from device `local`.
-64: `10.20.0.2` not reachable from device `local`.
-65: `10.20.1.1` not reachable from device `local`.
-66: `10.20.1.2` not reachable from device `local`.
-67: `20.30.0.1` not reachable from device `local`.
-68: `20.30.0.2` not reachable from device `local`.
-69: `20.30.1.1` not reachable from device `local`.
-70: `20.30.1.2` not reachable from device `local`.
+16: No answer from `2.1.0.2` to `as1r1`.
+17: No answer from `3.1.0.2` to `as1r1`.
+18: No answer from `3.2.0.1` to `as1r1`.
+19: No answer from `3.2.0.2` to `as1r1`.
+20: No answer from `1.0.0.2` to `as1r2`.
+21: No answer from `2.1.0.2` to `as1r2`.
+22: No answer from `3.1.0.2` to `as1r2`.
+23: No answer from `3.2.0.1` to `as1r2`.
+24: No answer from `3.2.0.2` to `as1r2`.
+25: No answer from `1.0.0.2` to `as2r1`.
+26: No answer from `2.1.0.2` to `as2r1`.
+27: No answer from `3.1.0.2` to `as2r1`.
+28: No answer from `3.2.0.1` to `as2r1`.
+29: No answer from `3.2.0.2` to `as2r1`.
+30: No answer from `1.0.0.2` to `as2r2`.
+31: No answer from `2.1.0.2` to `as2r2`.
+32: No answer from `3.1.0.2` to `as2r2`.
+33: No answer from `3.2.0.1` to `as2r2`.
+34: No answer from `3.2.0.2` to `as2r2`.
+35: No answer from `1.0.0.2` to `as3r1`.
+36: No answer from `2.1.0.2` to `as3r1`.
+37: No answer from `3.1.0.2` to `as3r1`.
+38: ping: connect: Network is unreachable
+39: ping: connect: Network is unreachable
+40: No answer from `1.0.0.2` to `as3r2`.
+41: No answer from `2.1.0.2` to `as3r2`.
+42: No answer from `3.1.0.2` to `as3r2`.
+43: ping: connect: Network is unreachable
+44: ping: connect: Network is unreachable
+45: ping: connect: Network is unreachable
+46: ping: connect: Network is unreachable
+47: ping: connect: Network is unreachable
+48: ping: connect: Network is unreachable
+49: ping: connect: Network is unreachable
+50: ping: connect: Network is unreachable
+51: ping: connect: Network is unreachable
+52: ping: connect: Network is unreachable
+53: ping: connect: Network is unreachable
+54: ping: connect: Network is unreachable
+55: ping: connect: Network is unreachable
+56: ping: connect: Network is unreachable
+57: ping: connect: Network is unreachable
+58: ping: connect: Network is unreachable
+59: ping: connect: Network is unreachable
+60: ping: connect: Network is unreachable
+61: ping: connect: Network is unreachable
+62: ping: connect: Network is unreachable
+63: ping: connect: Network is unreachable
+64: ping: connect: Network is unreachable
+65: ping: connect: Network is unreachable
+66: ping: connect: Network is unreachable
+67: Device `root` is not running.
+68: Device `root` is not running.
+69: Device `root` is not running.
+70: Device `root` is not running.
 71: Device `root` is not running.
 72: Device `root` is not running.
 73: Device `root` is not running.
@@ -915,10 +915,10 @@
 86: Device `root` is not running.
 87: Device `root` is not running.
 88: Device `root` is not running.
-89: Device `root` is not running.
-90: Device `root` is not running.
-91: Device `root` is not running.
-92: Device `root` is not running.
+89: Device `net` is not running.
+90: Device `net` is not running.
+91: Device `net` is not running.
+92: Device `net` is not running.
 93: Device `net` is not running.
 94: Device `net` is not running.
 95: Device `net` is not running.
@@ -937,62 +937,58 @@
 108: Device `net` is not running.
 109: Device `net` is not running.
 110: Device `net` is not running.
-111: Device `net` is not running.
-112: Device `net` is not running.
-113: Device `net` is not running.
-114: Device `net` is not running.
-115: `1.1.0.1` not reachable from device `pc`.
-116: `1.1.0.2` not reachable from device `pc`.
-117: `2.0.0.1` not reachable from device `pc`.
-118: `2.0.0.2` not reachable from device `pc`.
-119: `2.1.0.1` not reachable from device `pc`.
-120: `2.1.0.2` not reachable from device `pc`.
-121: `3.0.0.1` not reachable from device `pc`.
-122: `3.0.0.2` not reachable from device `pc`.
-123: `3.1.0.1` not reachable from device `pc`.
-124: `3.1.0.2` not reachable from device `pc`.
-125: `3.2.0.1` not reachable from device `pc`.
-126: `3.2.0.2` not reachable from device `pc`.
-127: `10.20.0.1` not reachable from device `pc`.
-128: `10.20.0.2` not reachable from device `pc`.
-129: `10.20.1.1` not reachable from device `pc`.
-130: `10.20.1.2` not reachable from device `pc`.
-131: `20.30.0.1` not reachable from device `pc`.
-132: `20.30.0.2` not reachable from device `pc`.
-133: `20.30.1.1` not reachable from device `pc`.
-134: `20.30.1.2` not reachable from device `pc`.
-135: Device net not in the network scenario.
-136: Device net not in the network scenario.
-137: Device root not in the network scenario.
-138: Device root not in the network scenario.
-139: The peering between as1r1 and 1.0.0.2 is not up.
-140: The peering between as1r2 and 1.0.0.1 is not up.
-141: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
-142: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
-143: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
-144: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
-145: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
-146: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
-147: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
-148: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
-149: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
-150: Device `root` is not running.
-151: Device `root` is not running.
-152: named on local is running but answered with REFUSED when quering for .
-153: Device `net` is not running.
-154: `resolv.conf` file not found for device `as1r1`
-155: `resolv.conf` file not found for device `as1r2`
-156: `resolv.conf` file not found for device `as2r1`
-157: `resolv.conf` file not found for device `as2r2`
-158: `resolv.conf` file not found for device `as3r1`
-159: `resolv.conf` file not found for device `as3r2`
-160: The local name server for device `pc` has ip `3.2.0.2`
-161: `pc.net` not reachable from device `as1r1`.
-162: `pc.net` not reachable from device `as1r2`.
-163: `pc.net` not reachable from device `as2r1`.
-164: `pc.net` not reachable from device `as2r2`.
-165: `pc.net` not reachable from device `as3r1`.
-166: `pc.net` not reachable from device `as3r2`.
+111: ping: connect: Network is unreachable
+112: ping: connect: Network is unreachable
+113: ping: connect: Network is unreachable
+114: ping: connect: Network is unreachable
+115: ping: connect: Network is unreachable
+116: ping: connect: Network is unreachable
+117: ping: connect: Network is unreachable
+118: ping: connect: Network is unreachable
+119: ping: connect: Network is unreachable
+120: ping: connect: Network is unreachable
+121: ping: connect: Network is unreachable
+122: ping: connect: Network is unreachable
+123: ping: connect: Network is unreachable
+124: ping: connect: Network is unreachable
+125: ping: connect: Network is unreachable
+126: ping: connect: Network is unreachable
+127: ping: connect: Network is unreachable
+128: ping: connect: Network is unreachable
+129: ping: connect: Network is unreachable
+130: ping: connect: Network is unreachable
+131: Device net not in the network scenario.
+132: Device net not in the network scenario.
+133: Device root not in the network scenario.
+134: Device root not in the network scenario.
+135: The peering between as1r1 and 1.0.0.2 is not up.
+136: The peering between as1r2 and 1.0.0.1 is not up.
+137: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
+138: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
+139: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
+140: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
+141: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
+142: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
+143: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
+144: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
+145: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
+146: Device `root` is not running.
+147: Device `root` is not running.
+148: named on local is running but answered with REFUSED when quering for .
+149: Device `net` is not running.
+150: `resolv.conf` file not found for device `as1r1`
+151: `resolv.conf` file not found for device `as1r2`
+152: `resolv.conf` file not found for device `as2r1`
+153: `resolv.conf` file not found for device `as2r2`
+154: `resolv.conf` file not found for device `as3r1`
+155: `resolv.conf` file not found for device `as3r2`
+156: The local name server for device `pc` has ip `3.2.0.2`
+157: ping: pc.net: Temporary failure in name resolution
+158: ping: pc.net: Temporary failure in name resolution
+159: ping: pc.net: Temporary failure in name resolution
+160: ping: pc.net: Temporary failure in name resolution
+161: ping: pc.net: Temporary failure in name resolution
+162: ping: pc.net: Temporary failure in name resolution
 </t>
         </is>
       </c>
@@ -1022,12 +1018,12 @@
 6: `resolv.conf` file not found for device `as2r2`
 7: `resolv.conf` file not found for device `as3r1`
 8: `resolv.conf` file not found for device `as3r2`
-9: `pc.net` not reachable from device `as1r1`.
-10: `pc.net` not reachable from device `as1r2`.
-11: `pc.net` not reachable from device `as2r1`.
-12: `pc.net` not reachable from device `as2r2`.
-13: `pc.net` not reachable from device `as3r1`.
-14: `pc.net` not reachable from device `as3r2`.
+9: ping: pc.net: Temporary failure in name resolution
+10: ping: pc.net: Temporary failure in name resolution
+11: ping: pc.net: Temporary failure in name resolution
+12: ping: pc.net: Temporary failure in name resolution
+13: ping: pc.net: Temporary failure in name resolution
+14: ping: pc.net: Temporary failure in name resolution
 </t>
         </is>
       </c>

--- a/examples/palabra/results.xlsx
+++ b/examples/palabra/results.xlsx
@@ -711,12 +711,12 @@
 241: ERROR: bgpd is not running
 242: ERROR: bgpd is not running
 243: ERROR: bgpd is not running
-244: Network 1.0.0.0/8 is not announced in BGP.
-245: Network 1.0.0.0/8 is not announced in BGP.
-246: Network 2.0.0.0/8 is not announced in BGP.
-247: Network 2.0.0.0/8 is not announced in BGP.
-248: Network 3.0.0.0/8 is not announced in BGP.
-249: Network 3.0.0.0/8 is not announced in BGP.
+244: Network 1.0.0.0/8 is not announced in bgpd.
+245: Network 1.0.0.0/8 is not announced in bgpd.
+246: Network 2.0.0.0/8 is not announced in bgpd.
+247: Network 2.0.0.0/8 is not announced in bgpd.
+248: Network 3.0.0.0/8 is not announced in bgpd.
+249: Network 3.0.0.0/8 is not announced in bgpd.
 250: connected routes are not injected into `ripd` on `as1r1`.
 251: bgp routes are not injected into `ripd` on `as1r1`.
 252: connected routes are not injected into `ripd` on `as1r2`.
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
         <v>399</v>
@@ -848,31 +848,31 @@
 19: No answer from `3.2.0.2` to `as1r1`.
 20: No answer from `1.0.0.2` to `as1r2`.
 21: No answer from `2.1.0.2` to `as1r2`.
-22: No answer from `3.1.0.2` to `as1r2`.
-23: No answer from `3.2.0.1` to `as1r2`.
-24: No answer from `3.2.0.2` to `as1r2`.
-25: No answer from `1.0.0.2` to `as2r1`.
-26: No answer from `2.1.0.2` to `as2r1`.
-27: No answer from `3.1.0.2` to `as2r1`.
-28: No answer from `3.2.0.1` to `as2r1`.
-29: No answer from `3.2.0.2` to `as2r1`.
-30: No answer from `1.0.0.2` to `as2r2`.
-31: No answer from `2.1.0.2` to `as2r2`.
-32: No answer from `3.1.0.2` to `as2r2`.
-33: No answer from `3.2.0.1` to `as2r2`.
-34: No answer from `3.2.0.2` to `as2r2`.
-35: No answer from `1.0.0.2` to `as3r1`.
-36: No answer from `2.1.0.2` to `as3r1`.
-37: No answer from `3.1.0.2` to `as3r1`.
-38: ping: connect: Network is unreachable
-39: ping: connect: Network is unreachable
-40: No answer from `1.0.0.2` to `as3r2`.
-41: No answer from `2.1.0.2` to `as3r2`.
-42: No answer from `3.1.0.2` to `as3r2`.
+22: No answer from `3.0.0.1` to `as1r2`.
+23: No answer from `3.1.0.1` to `as1r2`.
+24: No answer from `3.1.0.2` to `as1r2`.
+25: No answer from `3.2.0.1` to `as1r2`.
+26: No answer from `3.2.0.2` to `as1r2`.
+27: No answer from `20.30.0.2` to `as1r2`.
+28: No answer from `1.0.0.2` to `as2r1`.
+29: No answer from `2.1.0.2` to `as2r1`.
+30: No answer from `3.1.0.2` to `as2r1`.
+31: No answer from `3.2.0.1` to `as2r1`.
+32: No answer from `3.2.0.2` to `as2r1`.
+33: No answer from `20.30.1.1` to `as2r1`.
+34: No answer from `1.0.0.2` to `as2r2`.
+35: No answer from `2.1.0.2` to `as2r2`.
+36: No answer from `3.1.0.2` to `as2r2`.
+37: No answer from `3.2.0.1` to `as2r2`.
+38: No answer from `3.2.0.2` to `as2r2`.
+39: No answer from `1.0.0.2` to `as3r1`.
+40: No answer from `2.1.0.2` to `as3r1`.
+41: No answer from `3.1.0.2` to `as3r1`.
+42: ping: connect: Network is unreachable
 43: ping: connect: Network is unreachable
-44: ping: connect: Network is unreachable
-45: ping: connect: Network is unreachable
-46: ping: connect: Network is unreachable
+44: No answer from `1.0.0.2` to `as3r2`.
+45: No answer from `2.1.0.2` to `as3r2`.
+46: No answer from `3.1.0.2` to `as3r2`.
 47: ping: connect: Network is unreachable
 48: ping: connect: Network is unreachable
 49: ping: connect: Network is unreachable
@@ -893,10 +893,10 @@
 64: ping: connect: Network is unreachable
 65: ping: connect: Network is unreachable
 66: ping: connect: Network is unreachable
-67: Device `root` is not running.
-68: Device `root` is not running.
-69: Device `root` is not running.
-70: Device `root` is not running.
+67: ping: connect: Network is unreachable
+68: ping: connect: Network is unreachable
+69: ping: connect: Network is unreachable
+70: ping: connect: Network is unreachable
 71: Device `root` is not running.
 72: Device `root` is not running.
 73: Device `root` is not running.
@@ -915,10 +915,10 @@
 86: Device `root` is not running.
 87: Device `root` is not running.
 88: Device `root` is not running.
-89: Device `net` is not running.
-90: Device `net` is not running.
-91: Device `net` is not running.
-92: Device `net` is not running.
+89: Device `root` is not running.
+90: Device `root` is not running.
+91: Device `root` is not running.
+92: Device `root` is not running.
 93: Device `net` is not running.
 94: Device `net` is not running.
 95: Device `net` is not running.
@@ -937,10 +937,10 @@
 108: Device `net` is not running.
 109: Device `net` is not running.
 110: Device `net` is not running.
-111: ping: connect: Network is unreachable
-112: ping: connect: Network is unreachable
-113: ping: connect: Network is unreachable
-114: ping: connect: Network is unreachable
+111: Device `net` is not running.
+112: Device `net` is not running.
+113: Device `net` is not running.
+114: Device `net` is not running.
 115: ping: connect: Network is unreachable
 116: ping: connect: Network is unreachable
 117: ping: connect: Network is unreachable
@@ -957,38 +957,42 @@
 128: ping: connect: Network is unreachable
 129: ping: connect: Network is unreachable
 130: ping: connect: Network is unreachable
-131: Device net not in the network scenario.
-132: Device net not in the network scenario.
-133: Device root not in the network scenario.
-134: Device root not in the network scenario.
-135: The peering between as1r1 and 1.0.0.2 is not up.
-136: The peering between as1r2 and 1.0.0.1 is not up.
-137: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
-138: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
-139: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
-140: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
-141: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
-142: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
-143: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
-144: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
-145: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
-146: Device `root` is not running.
-147: Device `root` is not running.
-148: named on local is running but answered with REFUSED when quering for .
-149: Device `net` is not running.
-150: `resolv.conf` file not found for device `as1r1`
-151: `resolv.conf` file not found for device `as1r2`
-152: `resolv.conf` file not found for device `as2r1`
-153: `resolv.conf` file not found for device `as2r2`
-154: `resolv.conf` file not found for device `as3r1`
-155: `resolv.conf` file not found for device `as3r2`
-156: The local name server for device `pc` has ip `3.2.0.2`
-157: ping: pc.net: Temporary failure in name resolution
-158: ping: pc.net: Temporary failure in name resolution
-159: ping: pc.net: Temporary failure in name resolution
-160: ping: pc.net: Temporary failure in name resolution
+131: ping: connect: Network is unreachable
+132: ping: connect: Network is unreachable
+133: ping: connect: Network is unreachable
+134: ping: connect: Network is unreachable
+135: Device net not in the network scenario.
+136: Device net not in the network scenario.
+137: Device root not in the network scenario.
+138: Device root not in the network scenario.
+139: The peering between as1r1 and 1.0.0.2 is not up.
+140: The peering between as1r2 and 1.0.0.1 is not up.
+141: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
+142: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
+143: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
+144: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
+145: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
+146: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
+147: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
+148: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
+149: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
+150: Device `root` is not running.
+151: Device `root` is not running.
+152: named on local is running but answered with REFUSED when quering for .
+153: Device `net` is not running.
+154: `resolv.conf` file not found for device `as1r1`
+155: `resolv.conf` file not found for device `as1r2`
+156: `resolv.conf` file not found for device `as2r1`
+157: `resolv.conf` file not found for device `as2r2`
+158: `resolv.conf` file not found for device `as3r1`
+159: `resolv.conf` file not found for device `as3r2`
+160: The local name server for device `pc` has ip `3.2.0.2`
 161: ping: pc.net: Temporary failure in name resolution
 162: ping: pc.net: Temporary failure in name resolution
+163: ping: pc.net: Temporary failure in name resolution
+164: ping: pc.net: Temporary failure in name resolution
+165: ping: pc.net: Temporary failure in name resolution
+166: ping: pc.net: Temporary failure in name resolution
 </t>
         </is>
       </c>

--- a/examples/palabra/results.xlsx
+++ b/examples/palabra/results.xlsx
@@ -454,19 +454,258 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lab3</t>
+          <t>lab2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>387</v>
       </c>
       <c r="C2" t="n">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>401</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1: The peering between as2r2 and 20.30.1.2 is not up.
+2: named on local is running but answered with REFUSED when quering for .
+3: `resolv.conf` file not found for device `as1r1`
+4: `resolv.conf` file not found for device `as1r2`
+5: `resolv.conf` file not found for device `as2r1`
+6: `resolv.conf` file not found for device `as2r2`
+7: `resolv.conf` file not found for device `as3r1`
+8: `resolv.conf` file not found for device `as3r2`
+9: ping: pc.net: Temporary failure in name resolution
+10: ping: pc.net: Temporary failure in name resolution
+11: ping: pc.net: Temporary failure in name resolution
+12: ping: pc.net: Temporary failure in name resolution
+13: ping: pc.net: Temporary failure in name resolution
+14: ping: pc.net: Temporary failure in name resolution
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lab1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>237</v>
+      </c>
+      <c r="C3" t="n">
+        <v>162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>399</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1: Device root not in the network scenario.
+2: Device net not in the network scenario.
+3: Devices connected to collision domain A ['as1r1', 'pc'] are different from the one in the template ['root', 'as1r2'].
+4: Devices connected to collision domain E ['as2r2', 'dnsnet'] are different from the one in the template ['as2r2', 'net'].
+5: Devices connected to collision domain K ['as1r2', 'local'] are different from the one in the template ['as3r2', 'local'].
+6: Devices connected to collision domain J ['as3r2', 'dnsroot'] are different from the one in the template ['as3r2', 'pc'].
+7: The interface `eth0` of `as1r1` has the following IP addresses: ['1.0.0.1/24']`.
+8: The interface `eth1` of `as1r1` has the following IP addresses: ['10.20.0.1/30']`.
+9: The interface `eth0` of `as1r2` has the following IP addresses: ['1.1.0.2/24']`.
+10: The interface `eth1` of `as1r2` has the following IP addresses: ['10.20.1.1/30']`.
+11: The interface `eth2` of `as1r2` has the following IP addresses: ['1.2.0.1/24']`.
+12: The interface `eth2` of `as3r2` has the following IP addresses: ['3.1.0.1/24']`.
+13: Interface eth`3` not found on `as3r2`
+14: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
+15: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
+16: No answer from `2.1.0.2` to `as1r1`.
+17: No answer from `3.1.0.2` to `as1r1`.
+18: No answer from `3.2.0.1` to `as1r1`.
+19: No answer from `3.2.0.2` to `as1r1`.
+20: No answer from `1.0.0.2` to `as1r2`.
+21: No answer from `2.1.0.2` to `as1r2`.
+22: No answer from `3.1.0.2` to `as1r2`.
+23: No answer from `3.2.0.1` to `as1r2`.
+24: No answer from `3.2.0.2` to `as1r2`.
+25: No answer from `1.0.0.2` to `as2r1`.
+26: No answer from `2.1.0.2` to `as2r1`.
+27: No answer from `3.1.0.2` to `as2r1`.
+28: No answer from `3.2.0.1` to `as2r1`.
+29: No answer from `3.2.0.2` to `as2r1`.
+30: No answer from `1.0.0.2` to `as2r2`.
+31: No answer from `2.1.0.2` to `as2r2`.
+32: No answer from `3.1.0.2` to `as2r2`.
+33: No answer from `3.2.0.1` to `as2r2`.
+34: No answer from `3.2.0.2` to `as2r2`.
+35: No answer from `1.0.0.2` to `as3r1`.
+36: No answer from `2.1.0.2` to `as3r1`.
+37: No answer from `3.1.0.2` to `as3r1`.
+38: ping: connect: Network is unreachable
+39: ping: connect: Network is unreachable
+40: No answer from `1.0.0.2` to `as3r2`.
+41: No answer from `2.1.0.2` to `as3r2`.
+42: No answer from `3.1.0.2` to `as3r2`.
+43: ping: connect: Network is unreachable
+44: ping: connect: Network is unreachable
+45: ping: connect: Network is unreachable
+46: ping: connect: Network is unreachable
+47: ping: connect: Network is unreachable
+48: ping: connect: Network is unreachable
+49: ping: connect: Network is unreachable
+50: ping: connect: Network is unreachable
+51: ping: connect: Network is unreachable
+52: ping: connect: Network is unreachable
+53: ping: connect: Network is unreachable
+54: ping: connect: Network is unreachable
+55: ping: connect: Network is unreachable
+56: ping: connect: Network is unreachable
+57: ping: connect: Network is unreachable
+58: ping: connect: Network is unreachable
+59: ping: connect: Network is unreachable
+60: ping: connect: Network is unreachable
+61: ping: connect: Network is unreachable
+62: ping: connect: Network is unreachable
+63: ping: connect: Network is unreachable
+64: ping: connect: Network is unreachable
+65: ping: connect: Network is unreachable
+66: ping: connect: Network is unreachable
+67: Device `root` is not running.
+68: Device `root` is not running.
+69: Device `root` is not running.
+70: Device `root` is not running.
+71: Device `root` is not running.
+72: Device `root` is not running.
+73: Device `root` is not running.
+74: Device `root` is not running.
+75: Device `root` is not running.
+76: Device `root` is not running.
+77: Device `root` is not running.
+78: Device `root` is not running.
+79: Device `root` is not running.
+80: Device `root` is not running.
+81: Device `root` is not running.
+82: Device `root` is not running.
+83: Device `root` is not running.
+84: Device `root` is not running.
+85: Device `root` is not running.
+86: Device `root` is not running.
+87: Device `root` is not running.
+88: Device `root` is not running.
+89: Device `net` is not running.
+90: Device `net` is not running.
+91: Device `net` is not running.
+92: Device `net` is not running.
+93: Device `net` is not running.
+94: Device `net` is not running.
+95: Device `net` is not running.
+96: Device `net` is not running.
+97: Device `net` is not running.
+98: Device `net` is not running.
+99: Device `net` is not running.
+100: Device `net` is not running.
+101: Device `net` is not running.
+102: Device `net` is not running.
+103: Device `net` is not running.
+104: Device `net` is not running.
+105: Device `net` is not running.
+106: Device `net` is not running.
+107: Device `net` is not running.
+108: Device `net` is not running.
+109: Device `net` is not running.
+110: Device `net` is not running.
+111: ping: connect: Network is unreachable
+112: ping: connect: Network is unreachable
+113: ping: connect: Network is unreachable
+114: ping: connect: Network is unreachable
+115: ping: connect: Network is unreachable
+116: ping: connect: Network is unreachable
+117: ping: connect: Network is unreachable
+118: ping: connect: Network is unreachable
+119: ping: connect: Network is unreachable
+120: ping: connect: Network is unreachable
+121: ping: connect: Network is unreachable
+122: ping: connect: Network is unreachable
+123: ping: connect: Network is unreachable
+124: ping: connect: Network is unreachable
+125: ping: connect: Network is unreachable
+126: ping: connect: Network is unreachable
+127: ping: connect: Network is unreachable
+128: ping: connect: Network is unreachable
+129: ping: connect: Network is unreachable
+130: ping: connect: Network is unreachable
+131: Device net not in the network scenario.
+132: Device net not in the network scenario.
+133: Device root not in the network scenario.
+134: Device root not in the network scenario.
+135: The peering between as1r1 and 1.0.0.2 is not up.
+136: The peering between as1r2 and 1.0.0.1 is not up.
+137: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
+138: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
+139: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
+140: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
+141: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
+142: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
+143: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
+144: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
+145: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
+146: Device `root` is not running.
+147: Device `root` is not running.
+148: named on local is running but answered with REFUSED when quering for .
+149: Device `net` is not running.
+150: `resolv.conf` file not found for device `as1r1`
+151: `resolv.conf` file not found for device `as1r2`
+152: `resolv.conf` file not found for device `as2r1`
+153: `resolv.conf` file not found for device `as2r2`
+154: `resolv.conf` file not found for device `as3r1`
+155: `resolv.conf` file not found for device `as3r2`
+156: The local name server for device `pc` has ip `3.2.0.2`
+157: ping: pc.net: Temporary failure in name resolution
+158: ping: pc.net: Temporary failure in name resolution
+159: ping: pc.net: Temporary failure in name resolution
+160: ping: pc.net: Temporary failure in name resolution
+161: ping: pc.net: Temporary failure in name resolution
+162: ping: pc.net: Temporary failure in name resolution
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lab4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>401</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>401</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lab3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>317</v>
+      </c>
+      <c r="D5" t="n">
+        <v>401</v>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1: Devices connected to collision domain A ['as1r1', 'pc'] are different from the one in the template ['root', 'as1r2'].
 2: Devices connected to collision domain K ['as1r2', 'local'] are different from the one in the template ['as3r2', 'local'].
@@ -789,249 +1028,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lab4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>401</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>401</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lab1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>233</v>
-      </c>
-      <c r="C4" t="n">
-        <v>166</v>
-      </c>
-      <c r="D4" t="n">
-        <v>399</v>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1: Device root not in the network scenario.
-2: Device net not in the network scenario.
-3: Devices connected to collision domain A ['as1r1', 'pc'] are different from the one in the template ['root', 'as1r2'].
-4: Devices connected to collision domain E ['as2r2', 'dnsnet'] are different from the one in the template ['as2r2', 'net'].
-5: Devices connected to collision domain K ['as1r2', 'local'] are different from the one in the template ['as3r2', 'local'].
-6: Devices connected to collision domain J ['as3r2', 'dnsroot'] are different from the one in the template ['as3r2', 'pc'].
-7: The interface `eth0` of `as1r1` has the following IP addresses: ['1.0.0.1/24']`.
-8: The interface `eth1` of `as1r1` has the following IP addresses: ['10.20.0.1/30']`.
-9: The interface `eth0` of `as1r2` has the following IP addresses: ['1.1.0.2/24']`.
-10: The interface `eth1` of `as1r2` has the following IP addresses: ['10.20.1.1/30']`.
-11: The interface `eth2` of `as1r2` has the following IP addresses: ['1.2.0.1/24']`.
-12: The interface `eth2` of `as3r2` has the following IP addresses: ['3.1.0.1/24']`.
-13: Interface eth`3` not found on `as3r2`
-14: The interface `eth0` of `local` has the following IP addresses: ['1.2.0.2/24']`.
-15: The interface `eth0` of `pc` has the following IP addresses: ['1.0.0.2/24']`.
-16: No answer from `2.1.0.2` to `as1r1`.
-17: No answer from `3.1.0.2` to `as1r1`.
-18: No answer from `3.2.0.1` to `as1r1`.
-19: No answer from `3.2.0.2` to `as1r1`.
-20: No answer from `1.0.0.2` to `as1r2`.
-21: No answer from `2.1.0.2` to `as1r2`.
-22: No answer from `3.0.0.1` to `as1r2`.
-23: No answer from `3.1.0.1` to `as1r2`.
-24: No answer from `3.1.0.2` to `as1r2`.
-25: No answer from `3.2.0.1` to `as1r2`.
-26: No answer from `3.2.0.2` to `as1r2`.
-27: No answer from `20.30.0.2` to `as1r2`.
-28: No answer from `1.0.0.2` to `as2r1`.
-29: No answer from `2.1.0.2` to `as2r1`.
-30: No answer from `3.1.0.2` to `as2r1`.
-31: No answer from `3.2.0.1` to `as2r1`.
-32: No answer from `3.2.0.2` to `as2r1`.
-33: No answer from `20.30.1.1` to `as2r1`.
-34: No answer from `1.0.0.2` to `as2r2`.
-35: No answer from `2.1.0.2` to `as2r2`.
-36: No answer from `3.1.0.2` to `as2r2`.
-37: No answer from `3.2.0.1` to `as2r2`.
-38: No answer from `3.2.0.2` to `as2r2`.
-39: No answer from `1.0.0.2` to `as3r1`.
-40: No answer from `2.1.0.2` to `as3r1`.
-41: No answer from `3.1.0.2` to `as3r1`.
-42: ping: connect: Network is unreachable
-43: ping: connect: Network is unreachable
-44: No answer from `1.0.0.2` to `as3r2`.
-45: No answer from `2.1.0.2` to `as3r2`.
-46: No answer from `3.1.0.2` to `as3r2`.
-47: ping: connect: Network is unreachable
-48: ping: connect: Network is unreachable
-49: ping: connect: Network is unreachable
-50: ping: connect: Network is unreachable
-51: ping: connect: Network is unreachable
-52: ping: connect: Network is unreachable
-53: ping: connect: Network is unreachable
-54: ping: connect: Network is unreachable
-55: ping: connect: Network is unreachable
-56: ping: connect: Network is unreachable
-57: ping: connect: Network is unreachable
-58: ping: connect: Network is unreachable
-59: ping: connect: Network is unreachable
-60: ping: connect: Network is unreachable
-61: ping: connect: Network is unreachable
-62: ping: connect: Network is unreachable
-63: ping: connect: Network is unreachable
-64: ping: connect: Network is unreachable
-65: ping: connect: Network is unreachable
-66: ping: connect: Network is unreachable
-67: ping: connect: Network is unreachable
-68: ping: connect: Network is unreachable
-69: ping: connect: Network is unreachable
-70: ping: connect: Network is unreachable
-71: Device `root` is not running.
-72: Device `root` is not running.
-73: Device `root` is not running.
-74: Device `root` is not running.
-75: Device `root` is not running.
-76: Device `root` is not running.
-77: Device `root` is not running.
-78: Device `root` is not running.
-79: Device `root` is not running.
-80: Device `root` is not running.
-81: Device `root` is not running.
-82: Device `root` is not running.
-83: Device `root` is not running.
-84: Device `root` is not running.
-85: Device `root` is not running.
-86: Device `root` is not running.
-87: Device `root` is not running.
-88: Device `root` is not running.
-89: Device `root` is not running.
-90: Device `root` is not running.
-91: Device `root` is not running.
-92: Device `root` is not running.
-93: Device `net` is not running.
-94: Device `net` is not running.
-95: Device `net` is not running.
-96: Device `net` is not running.
-97: Device `net` is not running.
-98: Device `net` is not running.
-99: Device `net` is not running.
-100: Device `net` is not running.
-101: Device `net` is not running.
-102: Device `net` is not running.
-103: Device `net` is not running.
-104: Device `net` is not running.
-105: Device `net` is not running.
-106: Device `net` is not running.
-107: Device `net` is not running.
-108: Device `net` is not running.
-109: Device `net` is not running.
-110: Device `net` is not running.
-111: Device `net` is not running.
-112: Device `net` is not running.
-113: Device `net` is not running.
-114: Device `net` is not running.
-115: ping: connect: Network is unreachable
-116: ping: connect: Network is unreachable
-117: ping: connect: Network is unreachable
-118: ping: connect: Network is unreachable
-119: ping: connect: Network is unreachable
-120: ping: connect: Network is unreachable
-121: ping: connect: Network is unreachable
-122: ping: connect: Network is unreachable
-123: ping: connect: Network is unreachable
-124: ping: connect: Network is unreachable
-125: ping: connect: Network is unreachable
-126: ping: connect: Network is unreachable
-127: ping: connect: Network is unreachable
-128: ping: connect: Network is unreachable
-129: ping: connect: Network is unreachable
-130: ping: connect: Network is unreachable
-131: ping: connect: Network is unreachable
-132: ping: connect: Network is unreachable
-133: ping: connect: Network is unreachable
-134: ping: connect: Network is unreachable
-135: Device net not in the network scenario.
-136: Device net not in the network scenario.
-137: Device root not in the network scenario.
-138: Device root not in the network scenario.
-139: The peering between as1r1 and 1.0.0.2 is not up.
-140: The peering between as1r2 and 1.0.0.1 is not up.
-141: The route 3.2.0.0/24 IS NOT found in the routing table of `as3r1`.
-142: The route 0.0.0.0/0 IS NOT found in the routing table of `root`.
-143: The route 1.1.0.0/24 IS NOT found in the routing table of `root`.
-144: The route 0.0.0.0/0 IS NOT found in the routing table of `net`.
-145: The route 2.1.0.0/24 IS NOT found in the routing table of `net`.
-146: The route 0.0.0.0/0 IS NOT found in the routing table of `pc`.
-147: The route 3.1.0.0/24 IS NOT found in the routing table of `pc`.
-148: The route 0.0.0.0/0 IS NOT found in the routing table of `local`.
-149: The route 3.2.0.0/24 IS NOT found in the routing table of `local`.
-150: Device `root` is not running.
-151: Device `root` is not running.
-152: named on local is running but answered with REFUSED when quering for .
-153: Device `net` is not running.
-154: `resolv.conf` file not found for device `as1r1`
-155: `resolv.conf` file not found for device `as1r2`
-156: `resolv.conf` file not found for device `as2r1`
-157: `resolv.conf` file not found for device `as2r2`
-158: `resolv.conf` file not found for device `as3r1`
-159: `resolv.conf` file not found for device `as3r2`
-160: The local name server for device `pc` has ip `3.2.0.2`
-161: ping: pc.net: Temporary failure in name resolution
-162: ping: pc.net: Temporary failure in name resolution
-163: ping: pc.net: Temporary failure in name resolution
-164: ping: pc.net: Temporary failure in name resolution
-165: ping: pc.net: Temporary failure in name resolution
-166: ping: pc.net: Temporary failure in name resolution
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lab2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>387</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>401</v>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1: The peering between as2r2 and 20.30.1.2 is not up.
-2: named on local is running but answered with REFUSED when quering for .
-3: `resolv.conf` file not found for device `as1r1`
-4: `resolv.conf` file not found for device `as1r2`
-5: `resolv.conf` file not found for device `as2r1`
-6: `resolv.conf` file not found for device `as2r2`
-7: `resolv.conf` file not found for device `as3r1`
-8: `resolv.conf` file not found for device `as3r2`
-9: ping: pc.net: Temporary failure in name resolution
-10: ping: pc.net: Temporary failure in name resolution
-11: ping: pc.net: Temporary failure in name resolution
-12: ping: pc.net: Temporary failure in name resolution
-13: ping: pc.net: Temporary failure in name resolution
-14: ping: pc.net: Temporary failure in name resolution
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
